--- a/2021/Demographic x Usage/Sexuality vs. participation.xlsx
+++ b/2021/Demographic x Usage/Sexuality vs. participation.xlsx
@@ -1,20 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliexphan/Documents/1 - Fall 2021/4 - CS 5306/cs5306-p1/2021/Demographic x Usage/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C94033-AA9C-2B45-8B6E-BECA4ECABF82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
   <si>
     <t>Straight / Heterosexual</t>
   </si>
@@ -50,13 +68,16 @@
   </si>
   <si>
     <t>Multiple times per day</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -104,13 +125,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -119,6 +155,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -165,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +241,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,6 +293,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,14 +486,538 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="170" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>23802</v>
+      </c>
+      <c r="C2">
+        <v>1516</v>
+      </c>
+      <c r="D2">
+        <v>1427</v>
+      </c>
+      <c r="E2">
+        <v>652</v>
+      </c>
+      <c r="F2">
+        <v>552</v>
+      </c>
+      <c r="G2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>10519</v>
+      </c>
+      <c r="C3">
+        <v>786</v>
+      </c>
+      <c r="D3">
+        <v>685</v>
+      </c>
+      <c r="E3">
+        <v>314</v>
+      </c>
+      <c r="F3">
+        <v>274</v>
+      </c>
+      <c r="G3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>9863</v>
+      </c>
+      <c r="C4">
+        <v>736</v>
+      </c>
+      <c r="D4">
+        <v>521</v>
+      </c>
+      <c r="E4">
+        <v>223</v>
+      </c>
+      <c r="F4">
+        <v>263</v>
+      </c>
+      <c r="G4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4249</v>
+      </c>
+      <c r="C5">
+        <v>353</v>
+      </c>
+      <c r="D5">
+        <v>221</v>
+      </c>
+      <c r="E5">
+        <v>94</v>
+      </c>
+      <c r="F5">
+        <v>114</v>
+      </c>
+      <c r="G5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1934</v>
+      </c>
+      <c r="C6">
+        <v>141</v>
+      </c>
+      <c r="D6">
+        <v>119</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>897</v>
+      </c>
+      <c r="C7">
+        <v>84</v>
+      </c>
+      <c r="D7">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <f>SUM(B2:B7)</f>
+        <v>51264</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:G9" si="0">SUM(C2:C7)</f>
+        <v>3616</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3019</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1343</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1307</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>51264</v>
+      </c>
+      <c r="C12">
+        <v>3616</v>
+      </c>
+      <c r="D12">
+        <v>3019</v>
+      </c>
+      <c r="E12">
+        <v>1343</v>
+      </c>
+      <c r="F12">
+        <v>1307</v>
+      </c>
+      <c r="G12">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>51264</v>
+      </c>
+      <c r="C13">
+        <v>3616</v>
+      </c>
+      <c r="D13">
+        <v>3019</v>
+      </c>
+      <c r="E13">
+        <v>1343</v>
+      </c>
+      <c r="F13">
+        <v>1307</v>
+      </c>
+      <c r="G13">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>51264</v>
+      </c>
+      <c r="C14">
+        <v>3616</v>
+      </c>
+      <c r="D14">
+        <v>3019</v>
+      </c>
+      <c r="E14">
+        <v>1343</v>
+      </c>
+      <c r="F14">
+        <v>1307</v>
+      </c>
+      <c r="G14">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>51264</v>
+      </c>
+      <c r="C15">
+        <v>3616</v>
+      </c>
+      <c r="D15">
+        <v>3019</v>
+      </c>
+      <c r="E15">
+        <v>1343</v>
+      </c>
+      <c r="F15">
+        <v>1307</v>
+      </c>
+      <c r="G15">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>51264</v>
+      </c>
+      <c r="C16">
+        <v>3616</v>
+      </c>
+      <c r="D16">
+        <v>3019</v>
+      </c>
+      <c r="E16">
+        <v>1343</v>
+      </c>
+      <c r="F16">
+        <v>1307</v>
+      </c>
+      <c r="G16">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>51264</v>
+      </c>
+      <c r="C17">
+        <v>3616</v>
+      </c>
+      <c r="D17">
+        <v>3019</v>
+      </c>
+      <c r="E17">
+        <v>1343</v>
+      </c>
+      <c r="F17">
+        <v>1307</v>
+      </c>
+      <c r="G17">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>0.46430243445692881</v>
+      </c>
+      <c r="C20">
+        <v>0.41924778761061948</v>
+      </c>
+      <c r="D20">
+        <v>0.47267307055316332</v>
+      </c>
+      <c r="E20">
+        <v>0.48548026805658973</v>
+      </c>
+      <c r="F20">
+        <v>0.42234123947972457</v>
+      </c>
+      <c r="G20">
+        <v>0.51028277634961439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>0.20519272784019976</v>
+      </c>
+      <c r="C21">
+        <v>0.21736725663716813</v>
+      </c>
+      <c r="D21">
+        <v>0.22689632328585624</v>
+      </c>
+      <c r="E21">
+        <v>0.23380491437081161</v>
+      </c>
+      <c r="F21">
+        <v>0.20964039785768937</v>
+      </c>
+      <c r="G21">
+        <v>0.20822622107969152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>0.19239622347066168</v>
+      </c>
+      <c r="C22">
+        <v>0.20353982300884957</v>
+      </c>
+      <c r="D22">
+        <v>0.17257369990062935</v>
+      </c>
+      <c r="E22">
+        <v>0.16604616530156366</v>
+      </c>
+      <c r="F22">
+        <v>0.20122417750573834</v>
+      </c>
+      <c r="G22">
+        <v>0.15809768637532134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>8.2884675405742819E-2</v>
+      </c>
+      <c r="C23">
+        <v>9.762168141592921E-2</v>
+      </c>
+      <c r="D23">
+        <v>7.3203047366677709E-2</v>
+      </c>
+      <c r="E23">
+        <v>6.9992553983618769E-2</v>
+      </c>
+      <c r="F23">
+        <v>8.7222647283856161E-2</v>
+      </c>
+      <c r="G23">
+        <v>7.1979434447300775E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>3.7726279650436956E-2</v>
+      </c>
+      <c r="C24">
+        <v>3.8993362831858405E-2</v>
+      </c>
+      <c r="D24">
+        <v>3.9417025505134151E-2</v>
+      </c>
+      <c r="E24">
+        <v>2.6061057334326135E-2</v>
+      </c>
+      <c r="F24">
+        <v>4.8967100229533281E-2</v>
+      </c>
+      <c r="G24">
+        <v>3.7275064267352186E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>1.7497659176029964E-2</v>
+      </c>
+      <c r="C25">
+        <v>2.3230088495575223E-2</v>
+      </c>
+      <c r="D25">
+        <v>1.5236833388539251E-2</v>
+      </c>
+      <c r="E25">
+        <v>1.8615040953090096E-2</v>
+      </c>
+      <c r="F25">
+        <v>3.0604437643458302E-2</v>
+      </c>
+      <c r="G25">
+        <v>1.4138817480719794E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAB1525-7355-6B42-8AB6-B4B0AC9E674D}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,142 +1037,142 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>23802</v>
+        <v>0.46430243445692881</v>
       </c>
       <c r="C2">
-        <v>1516</v>
+        <v>0.41924778761061948</v>
       </c>
       <c r="D2">
-        <v>1427</v>
+        <v>0.47267307055316332</v>
       </c>
       <c r="E2">
-        <v>652</v>
+        <v>0.48548026805658973</v>
       </c>
       <c r="F2">
-        <v>552</v>
+        <v>0.42234123947972457</v>
       </c>
       <c r="G2">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.51028277634961439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>10519</v>
+        <v>0.20519272784019976</v>
       </c>
       <c r="C3">
-        <v>786</v>
+        <v>0.21736725663716813</v>
       </c>
       <c r="D3">
-        <v>685</v>
+        <v>0.22689632328585624</v>
       </c>
       <c r="E3">
-        <v>314</v>
+        <v>0.23380491437081161</v>
       </c>
       <c r="F3">
-        <v>274</v>
+        <v>0.20964039785768937</v>
       </c>
       <c r="G3">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.20822622107969152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>9863</v>
+        <v>0.19239622347066168</v>
       </c>
       <c r="C4">
-        <v>736</v>
+        <v>0.20353982300884957</v>
       </c>
       <c r="D4">
-        <v>521</v>
+        <v>0.17257369990062935</v>
       </c>
       <c r="E4">
-        <v>223</v>
+        <v>0.16604616530156366</v>
       </c>
       <c r="F4">
-        <v>263</v>
+        <v>0.20122417750573834</v>
       </c>
       <c r="G4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.15809768637532134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>4249</v>
+        <v>8.2884675405742819E-2</v>
       </c>
       <c r="C5">
-        <v>353</v>
+        <v>9.762168141592921E-2</v>
       </c>
       <c r="D5">
-        <v>221</v>
+        <v>7.3203047366677709E-2</v>
       </c>
       <c r="E5">
-        <v>94</v>
+        <v>6.9992553983618769E-2</v>
       </c>
       <c r="F5">
-        <v>114</v>
+        <v>8.7222647283856161E-2</v>
       </c>
       <c r="G5">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>7.1979434447300775E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1934</v>
+        <v>3.7726279650436956E-2</v>
       </c>
       <c r="C6">
-        <v>141</v>
+        <v>3.8993362831858405E-2</v>
       </c>
       <c r="D6">
-        <v>119</v>
+        <v>3.9417025505134151E-2</v>
       </c>
       <c r="E6">
-        <v>35</v>
+        <v>2.6061057334326135E-2</v>
       </c>
       <c r="F6">
-        <v>64</v>
+        <v>4.8967100229533281E-2</v>
       </c>
       <c r="G6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>3.7275064267352186E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>897</v>
+        <v>1.7497659176029964E-2</v>
       </c>
       <c r="C7">
-        <v>84</v>
+        <v>2.3230088495575223E-2</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>1.5236833388539251E-2</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>1.8615040953090096E-2</v>
       </c>
       <c r="F7">
-        <v>40</v>
+        <v>3.0604437643458302E-2</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>1.4138817480719794E-2</v>
       </c>
     </row>
   </sheetData>
